--- a/data/nzd0574/nzd0574.xlsx
+++ b/data/nzd0574/nzd0574.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S451"/>
+  <dimension ref="A1:S453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27957,6 +27957,132 @@
         </is>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>229.27</v>
+      </c>
+      <c r="C452" t="n">
+        <v>231.66</v>
+      </c>
+      <c r="D452" t="n">
+        <v>243.69</v>
+      </c>
+      <c r="E452" t="n">
+        <v>238.86</v>
+      </c>
+      <c r="F452" t="n">
+        <v>235.97</v>
+      </c>
+      <c r="G452" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="H452" t="n">
+        <v>240.4</v>
+      </c>
+      <c r="I452" t="n">
+        <v>243.99</v>
+      </c>
+      <c r="J452" t="n">
+        <v>248.59</v>
+      </c>
+      <c r="K452" t="n">
+        <v>245.71</v>
+      </c>
+      <c r="L452" t="n">
+        <v>245.71</v>
+      </c>
+      <c r="M452" t="n">
+        <v>246.97</v>
+      </c>
+      <c r="N452" t="n">
+        <v>247.15</v>
+      </c>
+      <c r="O452" t="n">
+        <v>247.71</v>
+      </c>
+      <c r="P452" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="R452" t="n">
+        <v>272.93</v>
+      </c>
+      <c r="S452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>232.23</v>
+      </c>
+      <c r="C453" t="n">
+        <v>239.59</v>
+      </c>
+      <c r="D453" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="E453" t="n">
+        <v>247.22</v>
+      </c>
+      <c r="F453" t="n">
+        <v>252.17</v>
+      </c>
+      <c r="G453" t="n">
+        <v>251.15</v>
+      </c>
+      <c r="H453" t="n">
+        <v>250.89</v>
+      </c>
+      <c r="I453" t="n">
+        <v>254.84</v>
+      </c>
+      <c r="J453" t="n">
+        <v>263.07</v>
+      </c>
+      <c r="K453" t="n">
+        <v>256.88</v>
+      </c>
+      <c r="L453" t="n">
+        <v>263.85</v>
+      </c>
+      <c r="M453" t="n">
+        <v>254.54</v>
+      </c>
+      <c r="N453" t="n">
+        <v>245.72</v>
+      </c>
+      <c r="O453" t="n">
+        <v>240.15</v>
+      </c>
+      <c r="P453" t="n">
+        <v>239.71</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>243.66</v>
+      </c>
+      <c r="R453" t="n">
+        <v>247.42</v>
+      </c>
+      <c r="S453" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27968,7 +28094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B452"/>
+  <dimension ref="A1:B454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32496,6 +32622,26 @@
       </c>
       <c r="B452" t="n">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
@@ -32657,34 +32803,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.078</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0883</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2523035589211629</v>
+        <v>0.245001492646471</v>
       </c>
       <c r="J2" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K2" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05003646607646428</v>
+        <v>0.0475883768639177</v>
       </c>
       <c r="M2" t="n">
-        <v>6.49909065338813</v>
+        <v>6.503322489159171</v>
       </c>
       <c r="N2" t="n">
-        <v>66.55034206437607</v>
+        <v>66.53415235234041</v>
       </c>
       <c r="O2" t="n">
-        <v>8.157839301210588</v>
+        <v>8.15684696143923</v>
       </c>
       <c r="P2" t="n">
-        <v>231.9783415224886</v>
+        <v>232.0528748227017</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32729,34 +32875,34 @@
         <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07829999999999999</v>
+        <v>0.0784</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0861</v>
+        <v>0.0863</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1114772669772273</v>
+        <v>0.109166917607557</v>
       </c>
       <c r="J3" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K3" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01040008228682743</v>
+        <v>0.01006696692626918</v>
       </c>
       <c r="M3" t="n">
-        <v>6.319014664732729</v>
+        <v>6.306375228767078</v>
       </c>
       <c r="N3" t="n">
-        <v>64.89821363207689</v>
+        <v>64.69629943797825</v>
       </c>
       <c r="O3" t="n">
-        <v>8.05594275253225</v>
+        <v>8.043400987019002</v>
       </c>
       <c r="P3" t="n">
-        <v>235.1611462048681</v>
+        <v>235.1846857199178</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32801,34 +32947,34 @@
         <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0832</v>
+        <v>0.0835</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09429999999999999</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07551658558715174</v>
+        <v>0.07251303485848935</v>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K4" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00464948353743555</v>
+        <v>0.004326980689251192</v>
       </c>
       <c r="M4" t="n">
-        <v>6.652462306367269</v>
+        <v>6.637722114030971</v>
       </c>
       <c r="N4" t="n">
-        <v>66.65096213749258</v>
+        <v>66.44210414035905</v>
       </c>
       <c r="O4" t="n">
-        <v>8.164004050555866</v>
+        <v>8.151202619267849</v>
       </c>
       <c r="P4" t="n">
-        <v>248.3224230954659</v>
+        <v>248.3532016782016</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32873,34 +33019,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0799</v>
+        <v>0.0801</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0897</v>
+        <v>0.0901</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05058677432884445</v>
+        <v>0.0467026409375975</v>
       </c>
       <c r="J5" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K5" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002192592655119396</v>
+        <v>0.001884226839998782</v>
       </c>
       <c r="M5" t="n">
-        <v>6.268590337774622</v>
+        <v>6.259984084397887</v>
       </c>
       <c r="N5" t="n">
-        <v>64.10074795376428</v>
+        <v>63.96448182744625</v>
       </c>
       <c r="O5" t="n">
-        <v>8.006294270994808</v>
+        <v>7.997779806136591</v>
       </c>
       <c r="P5" t="n">
-        <v>245.8977259623154</v>
+        <v>245.9373175794984</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32945,34 +33091,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0619</v>
+        <v>0.0621</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08110000000000001</v>
+        <v>0.0813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003934425058711661</v>
+        <v>0.002430936039106225</v>
       </c>
       <c r="J6" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K6" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L6" t="n">
-        <v>1.283970327281558e-05</v>
+        <v>4.928600597309263e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>6.52462169960683</v>
+        <v>6.532211947179213</v>
       </c>
       <c r="N6" t="n">
-        <v>66.71504475722159</v>
+        <v>66.72256199876321</v>
       </c>
       <c r="O6" t="n">
-        <v>8.167927812929152</v>
+        <v>8.168387968183392</v>
       </c>
       <c r="P6" t="n">
-        <v>245.633424611254</v>
+        <v>245.6486603327069</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33017,34 +33163,34 @@
         <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0684</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09</v>
+        <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08663365972497285</v>
+        <v>-0.08798547149310204</v>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K7" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005968437974321006</v>
+        <v>0.006197876721431572</v>
       </c>
       <c r="M7" t="n">
-        <v>6.618489875786575</v>
+        <v>6.620096936943579</v>
       </c>
       <c r="N7" t="n">
-        <v>69.23744474657184</v>
+        <v>69.14312807256645</v>
       </c>
       <c r="O7" t="n">
-        <v>8.320904082284079</v>
+        <v>8.315234697383259</v>
       </c>
       <c r="P7" t="n">
-        <v>248.0965396365005</v>
+        <v>248.1102279961724</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33089,34 +33235,34 @@
         <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.061</v>
+        <v>0.0611</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0732</v>
+        <v>0.0733</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1396905147801579</v>
+        <v>-0.1412325634050298</v>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K8" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01505588063969543</v>
+        <v>0.01551226576343345</v>
       </c>
       <c r="M8" t="n">
-        <v>6.441844314189948</v>
+        <v>6.436532115740292</v>
       </c>
       <c r="N8" t="n">
-        <v>70.22492603928833</v>
+        <v>70.04343111723566</v>
       </c>
       <c r="O8" t="n">
-        <v>8.380031386533606</v>
+        <v>8.369195368566542</v>
       </c>
       <c r="P8" t="n">
-        <v>251.0123393659786</v>
+        <v>251.0279652151548</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33161,34 +33307,34 @@
         <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0531</v>
+        <v>0.0532</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.0664</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1804813508440095</v>
+        <v>-0.1814638063429718</v>
       </c>
       <c r="J9" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K9" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02416897158117781</v>
+        <v>0.02463394187958723</v>
       </c>
       <c r="M9" t="n">
-        <v>6.864486241449953</v>
+        <v>6.857802250912459</v>
       </c>
       <c r="N9" t="n">
-        <v>72.28224116871716</v>
+        <v>72.08975406079439</v>
       </c>
       <c r="O9" t="n">
-        <v>8.501896327803413</v>
+        <v>8.490568535781005</v>
       </c>
       <c r="P9" t="n">
-        <v>255.2239133689026</v>
+        <v>255.2338036191392</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33233,34 +33379,34 @@
         <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0545</v>
+        <v>0.0546</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0646</v>
+        <v>0.0649</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1143132038366172</v>
+        <v>-0.1120052336471531</v>
       </c>
       <c r="J10" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K10" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008984487167695843</v>
+        <v>0.008693951844072956</v>
       </c>
       <c r="M10" t="n">
-        <v>7.217390299860692</v>
+        <v>7.217358136011762</v>
       </c>
       <c r="N10" t="n">
-        <v>80.04178297036644</v>
+        <v>79.93572413532345</v>
       </c>
       <c r="O10" t="n">
-        <v>8.946607344148196</v>
+        <v>8.940678057917276</v>
       </c>
       <c r="P10" t="n">
-        <v>256.4809674027911</v>
+        <v>256.4576979248556</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33308,31 +33454,31 @@
         <v>0.0533</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0575</v>
+        <v>0.0576</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.100282994490084</v>
+        <v>-0.101912900890719</v>
       </c>
       <c r="J11" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K11" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006641548757426174</v>
+        <v>0.006918297286839237</v>
       </c>
       <c r="M11" t="n">
-        <v>7.364510545814221</v>
+        <v>7.355937431891608</v>
       </c>
       <c r="N11" t="n">
-        <v>82.42424981170745</v>
+        <v>82.1982018520247</v>
       </c>
       <c r="O11" t="n">
-        <v>9.078780194040798</v>
+        <v>9.066322399519262</v>
       </c>
       <c r="P11" t="n">
-        <v>255.6579082753282</v>
+        <v>255.6743904768082</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33377,34 +33523,34 @@
         <v>0.05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0485</v>
+        <v>0.0486</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0524</v>
+        <v>0.0526</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09354148439363687</v>
+        <v>-0.09198001018432883</v>
       </c>
       <c r="J12" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K12" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005258086432814224</v>
+        <v>0.00511690866224046</v>
       </c>
       <c r="M12" t="n">
-        <v>7.536549239304589</v>
+        <v>7.543615913300728</v>
       </c>
       <c r="N12" t="n">
-        <v>91.18613961223841</v>
+        <v>91.15711607386712</v>
       </c>
       <c r="O12" t="n">
-        <v>9.549143396778499</v>
+        <v>9.547623582539643</v>
       </c>
       <c r="P12" t="n">
-        <v>255.6065526308863</v>
+        <v>255.5905940962267</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33449,34 +33595,34 @@
         <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0482</v>
+        <v>0.0483</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0534</v>
+        <v>0.0537</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2668096699125763</v>
+        <v>-0.269569627885923</v>
       </c>
       <c r="J13" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K13" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04077663574277679</v>
+        <v>0.04197375166880601</v>
       </c>
       <c r="M13" t="n">
-        <v>7.799508070222318</v>
+        <v>7.779782647109952</v>
       </c>
       <c r="N13" t="n">
-        <v>92.11076064609355</v>
+        <v>91.78340037527002</v>
       </c>
       <c r="O13" t="n">
-        <v>9.597435107678173</v>
+        <v>9.580365357086858</v>
       </c>
       <c r="P13" t="n">
-        <v>260.6769392270992</v>
+        <v>260.7049350419708</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33524,31 +33670,31 @@
         <v>0.0442</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0501</v>
+        <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.332484888885886</v>
+        <v>-0.3415211506465105</v>
       </c>
       <c r="J14" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K14" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05541197146971788</v>
+        <v>0.05864832557909838</v>
       </c>
       <c r="M14" t="n">
-        <v>8.092310279458269</v>
+        <v>8.100482380987311</v>
       </c>
       <c r="N14" t="n">
-        <v>103.7471125508602</v>
+        <v>103.6805847957701</v>
       </c>
       <c r="O14" t="n">
-        <v>10.18563265344182</v>
+        <v>10.18236636523014</v>
       </c>
       <c r="P14" t="n">
-        <v>264.6940495294543</v>
+        <v>264.7861766160854</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33593,34 +33739,34 @@
         <v>0.045</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0423</v>
+        <v>0.0422</v>
       </c>
       <c r="H15" t="n">
         <v>0.0466</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4197081883324094</v>
+        <v>-0.4318285230241326</v>
       </c>
       <c r="J15" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K15" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07440410893774185</v>
+        <v>0.07871615317543501</v>
       </c>
       <c r="M15" t="n">
-        <v>8.849913607951475</v>
+        <v>8.867764029328415</v>
       </c>
       <c r="N15" t="n">
-        <v>120.9677447675718</v>
+        <v>121.2050657744397</v>
       </c>
       <c r="O15" t="n">
-        <v>10.99853375534993</v>
+        <v>11.00931722562483</v>
       </c>
       <c r="P15" t="n">
-        <v>267.569456738614</v>
+        <v>267.6926819378842</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33668,31 +33814,31 @@
         <v>0.0395</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0413</v>
+        <v>0.0412</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5916105068944482</v>
+        <v>-0.6016039321793295</v>
       </c>
       <c r="J16" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K16" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L16" t="n">
-        <v>0.126358806193365</v>
+        <v>0.1305995789766582</v>
       </c>
       <c r="M16" t="n">
-        <v>9.254273430157481</v>
+        <v>9.263819181218754</v>
       </c>
       <c r="N16" t="n">
-        <v>133.2698316143505</v>
+        <v>133.506368065813</v>
       </c>
       <c r="O16" t="n">
-        <v>11.54425535122775</v>
+        <v>11.55449557816407</v>
       </c>
       <c r="P16" t="n">
-        <v>274.4358123411246</v>
+        <v>274.5372922608942</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33737,34 +33883,34 @@
         <v>0.035</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0337</v>
+        <v>0.0336</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0363</v>
+        <v>0.0362</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5647990056232238</v>
+        <v>-0.5728468992268659</v>
       </c>
       <c r="J17" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K17" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08911963430393088</v>
+        <v>0.09187021126056805</v>
       </c>
       <c r="M17" t="n">
-        <v>10.45313681266405</v>
+        <v>10.4615347220549</v>
       </c>
       <c r="N17" t="n">
-        <v>176.2959384860697</v>
+        <v>176.4784932358997</v>
       </c>
       <c r="O17" t="n">
-        <v>13.27764807810742</v>
+        <v>13.28452081318328</v>
       </c>
       <c r="P17" t="n">
-        <v>278.8652742568441</v>
+        <v>278.9484380396743</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33815,28 +33961,28 @@
         <v>0.0308</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5279433962923626</v>
+        <v>-0.5388400880507109</v>
       </c>
       <c r="J18" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K18" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05779641380610845</v>
+        <v>0.06038032264859172</v>
       </c>
       <c r="M18" t="n">
-        <v>12.16499407406593</v>
+        <v>12.16618979048433</v>
       </c>
       <c r="N18" t="n">
-        <v>227.6137547815997</v>
+        <v>227.7914606924818</v>
       </c>
       <c r="O18" t="n">
-        <v>15.08687359202031</v>
+        <v>15.09276186430044</v>
       </c>
       <c r="P18" t="n">
-        <v>284.1464322238365</v>
+        <v>284.2658048757713</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33874,7 +34020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S451"/>
+  <dimension ref="A1:S453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75777,6 +75923,200 @@
         </is>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>-40.729912467897705,172.69696865406044</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-40.72936048452766,172.69635890788643</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>-40.72875045398361,172.69583408397804</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-40.7282367643617,172.695472756732</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>-40.72757777517176,172.69508794993757</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>-40.72692337220536,172.69477132974023</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>-40.72622956253393,172.6945127475686</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>-40.72553381579038,172.69426193472387</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>-40.72487369324875,172.69407263599697</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>-40.724173453870044,172.69384608145128</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>-40.723467817445055,172.69365288796297</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>-40.722752535487835,172.69344758541533</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>-40.72205283461964,172.69323196617617</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>-40.72134977811364,172.69302419002236</t>
+        </is>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>-40.72062367662885,172.69291718514896</t>
+        </is>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>-40.719900548476545,172.69281722109642</t>
+        </is>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>-40.71919002231243,172.6926497594699</t>
+        </is>
+      </c>
+      <c r="S452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-40.72989471675373,172.6969948110063</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-40.72931292860498,172.6964289835773</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-40.728709578513254,172.69589421950556</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-40.728208689082734,172.69556461802563</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-40.727523400656764,172.6952659725701</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>-40.726885571848484,172.69492514042201</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>-40.726200513304505,172.69463094969262</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>-40.725503763559736,172.69438418949989</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>-40.72484709206251,172.69424049334958</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>-40.724152937165684,172.69397556775368</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>-40.723434462278874,172.6938631606378</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>-40.7227367806274,172.69353479552436</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>-40.722055751222776,172.69321547365774</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>-40.72136518214635,172.69293699507116</t>
+        </is>
+      </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>-40.72066122683534,172.69271362538515</t>
+        </is>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>-40.719952426450774,172.6925359916374</t>
+        </is>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>-40.71924412141255,172.6923562047431</t>
+        </is>
+      </c>
+      <c r="S453" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
